--- a/기구관련/BOM 정리.xlsx
+++ b/기구관련/BOM 정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="10305"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,14 +164,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,280 +490,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>15600</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>12.99</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>D3*C3</f>
         <v>31200</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <f>F3*2</f>
         <v>25.98</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>4800</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>3.99</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <f>D4</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H9" si="0">D4</f>
         <v>4800</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <f>F4</f>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J9" si="1">F4</f>
         <v>3.99</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>6000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3380</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3.99</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <f>D5</f>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <f>F5</f>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
         <v>3.99</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9600</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>6770</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>7.99</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
-        <f>D6</f>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <f>F6</f>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>7200</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>5.99</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
-        <f>D7</f>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <f>F7</f>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>12000</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>9.99</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <f>D8</f>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <f>F8</f>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
         <v>9.99</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>19200</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>15.99</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
-        <f>D9</f>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
         <v>19200</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <f>F9</f>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
         <v>15.99</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <f>SUM(F3:F9)</f>
         <v>60.930000000000007</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
         <f>SUM(H3:H9)*1.1</f>
         <v>99000.000000000015</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <f>SUM(J3:J9)</f>
         <v>73.92</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -782,14 +782,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>420</v>
+      </c>
+      <c r="C2">
+        <v>254</v>
+      </c>
+      <c r="D2">
+        <v>3.14</v>
+      </c>
+      <c r="F2">
+        <f>C2*D2</f>
+        <v>797.56000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>F2*B2</f>
+        <v>334975.2</v>
+      </c>
+      <c r="G3">
+        <f>F3/10</f>
+        <v>33497.520000000004</v>
+      </c>
+      <c r="H3">
+        <f>F3/1000</f>
+        <v>334.97520000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>H3*60</f>
+        <v>20098.512000000002</v>
+      </c>
+      <c r="I4">
+        <f>H4/1000</f>
+        <v>20.098512000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.17</v>
+      </c>
+      <c r="F5">
+        <f>E5*B2</f>
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>3.14</v>
+      </c>
+      <c r="F8">
+        <f>C8*D8</f>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f>F8*B8</f>
+        <v>329700</v>
+      </c>
+      <c r="G9">
+        <f>F9/10</f>
+        <v>32970</v>
+      </c>
+      <c r="H9">
+        <f>F9/1000</f>
+        <v>329.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>H9*60</f>
+        <v>19782</v>
+      </c>
+      <c r="I10">
+        <f>H10/1000</f>
+        <v>19.782</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.17</v>
+      </c>
+      <c r="F11">
+        <f>E11*B8</f>
+        <v>59.500000000000007</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/기구관련/BOM 정리.xlsx
+++ b/기구관련/BOM 정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">MOTOR </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,51 +42,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TIMMING PULLY 62T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAFT COLLAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레파츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">베어링 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icbanq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레 파츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배터리 관련 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">센서 관련 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기구 관련 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">단가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구입단위 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 홀더 AAA 6개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에너루프 배터리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배터리 충전기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 홀더 18650 4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18650 배터리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배터리 충전기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너루프 배터리 계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라이트 매니아 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">풀리 지름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트랙 두께 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바퀴 지름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1회전당 이동거리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">분당 이동거리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간당 이동거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SHAFT CONNECTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMMING PULLY 62T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHAFT COLLAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레파츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">베어링 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icbanq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>makeblock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레 파츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>makeblock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K10"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,403 +619,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15600</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <f>D3*C3</f>
-        <v>31200</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <f>F3*2</f>
-        <v>25.98</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>4800</v>
+        <v>15600</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>3.99</v>
+        <v>12.99</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H9" si="0">D4</f>
-        <v>4800</v>
+        <f>D4*C4</f>
+        <v>31200</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J9" si="1">F4</f>
-        <v>3.99</v>
+        <f>F4*2</f>
+        <v>25.98</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3380</v>
-      </c>
+        <v>4800</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>3.99</v>
       </c>
       <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="0">D5</f>
+        <v>4800</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J10" si="1">F5</f>
+        <v>3.99</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="D6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3380</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>6000</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.99</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9600</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6770</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>9600</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>9600</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6770</v>
+      </c>
       <c r="F7" s="1">
-        <v>5.99</v>
+        <v>7.99</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>5.99</v>
+        <v>7.99</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>19200</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>15.99</v>
+        <v>9.99</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>19200</v>
+        <v>12000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>15.99</v>
+        <v>9.99</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19200</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f>SUM(F3:F9)</f>
-        <v>60.930000000000007</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>15.99</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
       <c r="H10" s="1">
-        <f>SUM(H3:H9)*1.1</f>
-        <v>99000.000000000015</v>
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f>SUM(J3:J9)</f>
+        <f t="shared" si="1"/>
+        <v>15.99</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f>SUM(F4:F10)</f>
+        <v>60.930000000000007</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f>SUM(H4:H10)*1.1</f>
+        <v>99000.000000000015</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f>SUM(J4:J10)</f>
         <v>73.92</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <f>D17*C17</f>
+        <v>5000</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6670</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <f>D18*(C18/G18)</f>
+        <v>20010</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10670</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <f>D19*C19</f>
+        <v>10670</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="5">
+        <f>SUM(H17:J19)</f>
+        <v>35680</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="22">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B24" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B27" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>420</v>
-      </c>
-      <c r="C2">
-        <v>254</v>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>3.14</v>
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
       </c>
       <c r="F2">
-        <f>C2*D2</f>
-        <v>797.56000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F3">
-        <f>F2*B2</f>
-        <v>334975.2</v>
-      </c>
-      <c r="G3">
-        <f>F3/10</f>
-        <v>33497.520000000004</v>
-      </c>
-      <c r="H3">
-        <f>F3/1000</f>
-        <v>334.97520000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H4">
-        <f>H3*60</f>
-        <v>20098.512000000002</v>
-      </c>
-      <c r="I4">
-        <f>H4/1000</f>
-        <v>20.098512000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E5">
-        <v>0.17</v>
-      </c>
-      <c r="F5">
-        <f>E5*B2</f>
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>350</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <v>3.14</v>
-      </c>
-      <c r="F8">
-        <f>C8*D8</f>
-        <v>942</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F9">
-        <f>F8*B8</f>
-        <v>329700</v>
-      </c>
-      <c r="G9">
-        <f>F9/10</f>
-        <v>32970</v>
-      </c>
-      <c r="H9">
-        <f>F9/1000</f>
-        <v>329.7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H10">
-        <f>H9*60</f>
-        <v>19782</v>
-      </c>
-      <c r="I10">
-        <f>H10/1000</f>
-        <v>19.782</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E11">
-        <v>0.17</v>
-      </c>
-      <c r="F11">
-        <f>E11*B8</f>
-        <v>59.500000000000007</v>
+        <f>D2*3.141592/1000</f>
+        <v>0.15079641600000002</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>325</v>
+      </c>
+      <c r="K2">
+        <f>F2*I2</f>
+        <v>49.008835200000007</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <f>K2*60</f>
+        <v>2940.5301120000004</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
